--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F20B9-01D7-42BB-8C66-31E6E8380EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD50906D-98CD-4FDA-9E1C-0AC8CB262F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Indicador</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Indicador 10</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>CoL</t>
   </si>
 </sst>
 </file>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,11 +452,12 @@
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,76 +477,151 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2">
+        <v>1999</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+      <c r="F2">
+        <v>2031</v>
+      </c>
+      <c r="G2">
+        <v>1999</v>
+      </c>
+      <c r="H2">
+        <v>2031</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C3">
+        <v>2011</v>
+      </c>
+      <c r="D3">
+        <v>2050</v>
+      </c>
+      <c r="G3">
+        <v>2011</v>
+      </c>
+      <c r="H3">
+        <v>2031</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>2002</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <v>2031</v>
+      </c>
+      <c r="G4">
+        <v>2002</v>
+      </c>
+      <c r="H4">
+        <v>2031</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD50906D-98CD-4FDA-9E1C-0AC8CB262F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783256B-07F8-47FF-8215-E5D81B953B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Indicador</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>CoL</t>
+  </si>
+  <si>
+    <t>Estudios</t>
+  </si>
+  <si>
+    <t>Pivot</t>
+  </si>
+  <si>
+    <t>SI 80%</t>
+  </si>
+  <si>
+    <t>Tráfico</t>
+  </si>
+  <si>
+    <t>Esperanza vida</t>
   </si>
 </sst>
 </file>
@@ -438,16 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -457,7 +472,7 @@
     <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,8 +506,11 @@
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -526,8 +544,11 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -555,8 +576,11 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -590,38 +614,110 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>2004</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+      <c r="F5">
+        <v>2031</v>
+      </c>
+      <c r="G5">
+        <v>2004</v>
+      </c>
+      <c r="H5">
+        <v>2031</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1993</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6">
+        <v>2024</v>
+      </c>
+      <c r="F6">
+        <v>2031</v>
+      </c>
+      <c r="G6">
+        <v>1993</v>
+      </c>
+      <c r="H6">
+        <v>2031</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783256B-07F8-47FF-8215-E5D81B953B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF3D50-1D63-4394-9870-B64CE7F230B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Indicador</t>
   </si>
@@ -121,6 +132,12 @@
   </si>
   <si>
     <t>Esperanza vida</t>
+  </si>
+  <si>
+    <t>Crímenes</t>
+  </si>
+  <si>
+    <t>Servicios</t>
   </si>
 </sst>
 </file>
@@ -456,7 +473,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,15 +718,111 @@
       <c r="B7" t="s">
         <v>31</v>
       </c>
+      <c r="C7">
+        <v>1993</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7">
+        <v>2019</v>
+      </c>
+      <c r="F7">
+        <v>2031</v>
+      </c>
+      <c r="G7">
+        <v>1993</v>
+      </c>
+      <c r="H7">
+        <v>2031</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2010</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>2031</v>
+      </c>
+      <c r="G8">
+        <v>2010</v>
+      </c>
+      <c r="H8">
+        <v>2031</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2009</v>
+      </c>
+      <c r="D9">
+        <v>2024</v>
+      </c>
+      <c r="E9">
+        <v>2025</v>
+      </c>
+      <c r="F9">
+        <v>2031</v>
+      </c>
+      <c r="G9">
+        <v>2009</v>
+      </c>
+      <c r="H9">
+        <v>2031</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF3D50-1D63-4394-9870-B64CE7F230B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF04083D-205F-4058-B01D-FB071012DFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36495" yWindow="4140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Indicador</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>Servicios</t>
+  </si>
+  <si>
+    <t>Vivienda</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
   </si>
 </sst>
 </file>
@@ -473,7 +480,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,10 +836,76 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>1995</v>
+      </c>
+      <c r="D10">
+        <v>2017</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="F10">
+        <v>2031</v>
+      </c>
+      <c r="G10">
+        <v>1995</v>
+      </c>
+      <c r="H10">
+        <v>2031</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1997</v>
+      </c>
+      <c r="D11">
+        <v>2023</v>
+      </c>
+      <c r="E11">
+        <v>2024</v>
+      </c>
+      <c r="F11">
+        <v>2031</v>
+      </c>
+      <c r="G11">
+        <v>1997</v>
+      </c>
+      <c r="H11">
+        <v>2031</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF04083D-205F-4058-B01D-FB071012DFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B4A16B-83F9-4949-9142-26F3F9F97F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36495" yWindow="4140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,10 +566,10 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B4A16B-83F9-4949-9142-26F3F9F97F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206DAB78-175B-434F-93F5-EE7F5C8B5179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36495" yWindow="4140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206DAB78-175B-434F-93F5-EE7F5C8B5179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C484A-0800-48E2-828C-CC676526007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36495" yWindow="4140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C484A-0800-48E2-828C-CC676526007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F9141-36E1-415B-BBEB-02CDCEDAC643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36495" yWindow="4140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>Indicador</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Alquiler</t>
+  </si>
+  <si>
+    <t>Actualizar con datos desde 2001</t>
   </si>
 </sst>
 </file>
@@ -477,64 +480,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.44140625" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -545,22 +553,22 @@
         <v>1999</v>
       </c>
       <c r="D2">
+        <v>1999</v>
+      </c>
+      <c r="E2">
         <v>2020</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2021</v>
       </c>
-      <c r="F2">
-        <v>2031</v>
-      </c>
       <c r="G2">
+        <v>2031</v>
+      </c>
+      <c r="H2">
         <v>1999</v>
       </c>
-      <c r="H2">
-        <v>2031</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="I2">
+        <v>2031</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -569,10 +577,16 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -580,31 +594,40 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>2001</v>
+      </c>
+      <c r="D3">
         <v>2011</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2050</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2011</v>
       </c>
-      <c r="H3">
-        <v>2031</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>2031</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -615,34 +638,40 @@
         <v>2002</v>
       </c>
       <c r="D4">
+        <v>2002</v>
+      </c>
+      <c r="E4">
         <v>2022</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2023</v>
       </c>
-      <c r="F4">
-        <v>2031</v>
-      </c>
       <c r="G4">
+        <v>2031</v>
+      </c>
+      <c r="H4">
         <v>2002</v>
       </c>
-      <c r="H4">
-        <v>2031</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
+      <c r="I4">
+        <v>2031</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -653,34 +682,40 @@
         <v>2004</v>
       </c>
       <c r="D5">
+        <v>2004</v>
+      </c>
+      <c r="E5">
         <v>2021</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="F5">
-        <v>2031</v>
-      </c>
       <c r="G5">
+        <v>2031</v>
+      </c>
+      <c r="H5">
         <v>2004</v>
       </c>
-      <c r="H5">
-        <v>2031</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
+      <c r="I5">
+        <v>2031</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -691,22 +726,22 @@
         <v>1993</v>
       </c>
       <c r="D6">
+        <v>1993</v>
+      </c>
+      <c r="E6">
         <v>2023</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2024</v>
       </c>
-      <c r="F6">
-        <v>2031</v>
-      </c>
       <c r="G6">
+        <v>2031</v>
+      </c>
+      <c r="H6">
         <v>1993</v>
       </c>
-      <c r="H6">
-        <v>2031</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
+      <c r="I6">
+        <v>2031</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -715,48 +750,54 @@
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>2003</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+      <c r="F7">
+        <v>2019</v>
+      </c>
+      <c r="G7">
+        <v>2031</v>
+      </c>
+      <c r="H7">
         <v>1993</v>
       </c>
-      <c r="D7">
-        <v>2018</v>
-      </c>
-      <c r="E7">
-        <v>2019</v>
-      </c>
-      <c r="F7">
-        <v>2031</v>
-      </c>
-      <c r="G7">
-        <v>1993</v>
-      </c>
-      <c r="H7">
-        <v>2031</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
+      <c r="I7">
+        <v>2031</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -764,37 +805,43 @@
         <v>32</v>
       </c>
       <c r="C8">
+        <v>1999</v>
+      </c>
+      <c r="D8">
         <v>2010</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2022</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2023</v>
       </c>
-      <c r="F8">
-        <v>2031</v>
-      </c>
       <c r="G8">
+        <v>2031</v>
+      </c>
+      <c r="H8">
         <v>2010</v>
       </c>
-      <c r="H8">
-        <v>2031</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>2031</v>
+      </c>
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -802,25 +849,25 @@
         <v>33</v>
       </c>
       <c r="C9">
+        <v>2003</v>
+      </c>
+      <c r="D9">
         <v>2009</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2024</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2025</v>
       </c>
-      <c r="F9">
-        <v>2031</v>
-      </c>
       <c r="G9">
+        <v>2031</v>
+      </c>
+      <c r="H9">
         <v>2009</v>
       </c>
-      <c r="H9">
-        <v>2031</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
+      <c r="I9">
+        <v>2031</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -829,10 +876,16 @@
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -843,22 +896,22 @@
         <v>1995</v>
       </c>
       <c r="D10">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="E10">
+        <v>2024</v>
+      </c>
+      <c r="F10">
         <v>2018</v>
       </c>
-      <c r="F10">
-        <v>2031</v>
-      </c>
       <c r="G10">
+        <v>2031</v>
+      </c>
+      <c r="H10">
         <v>1995</v>
       </c>
-      <c r="H10">
-        <v>2031</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
+      <c r="I10">
+        <v>2031</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -867,45 +920,54 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1997</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2023</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2024</v>
       </c>
-      <c r="F11">
-        <v>2031</v>
-      </c>
       <c r="G11">
+        <v>2031</v>
+      </c>
+      <c r="H11">
         <v>1997</v>
       </c>
-      <c r="H11">
-        <v>2031</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <v>2031</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F9141-36E1-415B-BBEB-02CDCEDAC643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B06A51-D938-4659-B9C6-0A4D128660DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Indicador</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Actualizar con datos desde 2001</t>
+  </si>
+  <si>
+    <t>Fusionar los datos de 1999 antes de estimar</t>
   </si>
 </sst>
 </file>
@@ -177,12 +180,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,9 +218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +507,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +567,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -587,7 +611,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -628,7 +652,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -672,7 +696,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -716,7 +740,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -760,7 +784,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -798,7 +822,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -837,12 +861,15 @@
       <c r="M8" t="s">
         <v>14</v>
       </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
       <c r="Q8">
         <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -886,7 +913,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
@@ -930,7 +957,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B06A51-D938-4659-B9C6-0A4D128660DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C669F59-185D-4A41-82F2-83DB3209BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +957,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C669F59-185D-4A41-82F2-83DB3209BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4183160-02A2-4E9A-94BC-85997524E5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4183160-02A2-4E9A-94BC-85997524E5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B74B4-EAC2-4A0E-B891-4A75E4169FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,12 +218,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +510,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +787,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -820,6 +823,7 @@
       <c r="M7" t="s">
         <v>14</v>
       </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B74B4-EAC2-4A0E-B891-4A75E4169FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC0E993-D0E1-48E7-9C29-19A175AE4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Indicador</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Fusionar los datos de 1999 antes de estimar</t>
+  </si>
+  <si>
+    <t>No varía la predicción a 2031</t>
   </si>
 </sst>
 </file>
@@ -180,18 +183,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -218,12 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -510,7 +506,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +566,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -608,6 +604,9 @@
       </c>
       <c r="M2" t="s">
         <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
       </c>
       <c r="Q2">
         <v>2021</v>
@@ -655,7 +654,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -743,7 +742,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -787,7 +786,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -823,10 +822,10 @@
       <c r="M7" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -873,7 +872,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -917,7 +916,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
@@ -961,7 +960,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC0E993-D0E1-48E7-9C29-19A175AE4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEEC7C9-BF1E-4F4D-B9C9-AA50B3B00AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Barrios" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t>Indicador</t>
   </si>
@@ -51,18 +52,9 @@
     <t>Año fin</t>
   </si>
   <si>
-    <t>Estimado inicio</t>
-  </si>
-  <si>
-    <t>Estimado fin</t>
-  </si>
-  <si>
     <t>Datos Londres</t>
   </si>
   <si>
-    <t>Datos UK</t>
-  </si>
-  <si>
     <t>Indicador 01</t>
   </si>
   <si>
@@ -108,24 +100,12 @@
     <t>Indicador 10</t>
   </si>
   <si>
-    <t>Inicio</t>
-  </si>
-  <si>
-    <t>Fin</t>
-  </si>
-  <si>
     <t>Salario</t>
   </si>
   <si>
-    <t>CoL</t>
-  </si>
-  <si>
     <t>Estudios</t>
   </si>
   <si>
-    <t>Pivot</t>
-  </si>
-  <si>
     <t>SI 80%</t>
   </si>
   <si>
@@ -147,13 +127,268 @@
     <t>Alquiler</t>
   </si>
   <si>
-    <t>Actualizar con datos desde 2001</t>
-  </si>
-  <si>
-    <t>Fusionar los datos de 1999 antes de estimar</t>
-  </si>
-  <si>
-    <t>No varía la predicción a 2031</t>
+    <t>CSV INI</t>
+  </si>
+  <si>
+    <t>CSV FIN</t>
+  </si>
+  <si>
+    <t>Registros</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>City of London</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>01_AGE</t>
+  </si>
+  <si>
+    <t>E09000001</t>
+  </si>
+  <si>
+    <t>E09000002</t>
+  </si>
+  <si>
+    <t>Barking and Dagenham</t>
+  </si>
+  <si>
+    <t>E09000003</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>E09000004</t>
+  </si>
+  <si>
+    <t>Bexley</t>
+  </si>
+  <si>
+    <t>E09000005</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>E09000006</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>E09000007</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>E09000008</t>
+  </si>
+  <si>
+    <t>Croydon</t>
+  </si>
+  <si>
+    <t>E09000009</t>
+  </si>
+  <si>
+    <t>Ealing</t>
+  </si>
+  <si>
+    <t>E09000010</t>
+  </si>
+  <si>
+    <t>Enfield</t>
+  </si>
+  <si>
+    <t>E09000011</t>
+  </si>
+  <si>
+    <t>Greenwich</t>
+  </si>
+  <si>
+    <t>E09000012</t>
+  </si>
+  <si>
+    <t>Hackney</t>
+  </si>
+  <si>
+    <t>E09000013</t>
+  </si>
+  <si>
+    <t>Hammersmith and Fulham</t>
+  </si>
+  <si>
+    <t>E09000014</t>
+  </si>
+  <si>
+    <t>Haringey</t>
+  </si>
+  <si>
+    <t>E09000015</t>
+  </si>
+  <si>
+    <t>Harrow</t>
+  </si>
+  <si>
+    <t>E09000016</t>
+  </si>
+  <si>
+    <t>Havering</t>
+  </si>
+  <si>
+    <t>E09000017</t>
+  </si>
+  <si>
+    <t>Hillingdon</t>
+  </si>
+  <si>
+    <t>E09000018</t>
+  </si>
+  <si>
+    <t>Hounslow</t>
+  </si>
+  <si>
+    <t>E09000019</t>
+  </si>
+  <si>
+    <t>Islington</t>
+  </si>
+  <si>
+    <t>E09000020</t>
+  </si>
+  <si>
+    <t>Kensington and Chelsea</t>
+  </si>
+  <si>
+    <t>E09000021</t>
+  </si>
+  <si>
+    <t>Kingston upon Thames</t>
+  </si>
+  <si>
+    <t>E09000022</t>
+  </si>
+  <si>
+    <t>Lambeth</t>
+  </si>
+  <si>
+    <t>E09000023</t>
+  </si>
+  <si>
+    <t>Lewisham</t>
+  </si>
+  <si>
+    <t>E09000024</t>
+  </si>
+  <si>
+    <t>Merton</t>
+  </si>
+  <si>
+    <t>E09000025</t>
+  </si>
+  <si>
+    <t>Newham</t>
+  </si>
+  <si>
+    <t>E09000026</t>
+  </si>
+  <si>
+    <t>Redbridge</t>
+  </si>
+  <si>
+    <t>E09000027</t>
+  </si>
+  <si>
+    <t>Richmond upon Thames</t>
+  </si>
+  <si>
+    <t>E09000028</t>
+  </si>
+  <si>
+    <t>Southwark</t>
+  </si>
+  <si>
+    <t>E09000029</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>E09000030</t>
+  </si>
+  <si>
+    <t>Tower Hamlets</t>
+  </si>
+  <si>
+    <t>E09000031</t>
+  </si>
+  <si>
+    <t>Waltham Forest</t>
+  </si>
+  <si>
+    <t>E09000032</t>
+  </si>
+  <si>
+    <t>Wandsworth</t>
+  </si>
+  <si>
+    <t>E09000033</t>
+  </si>
+  <si>
+    <t>Westminster</t>
+  </si>
+  <si>
+    <t>E12000007</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Líneas esperadas</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Datos CoL estimados</t>
+  </si>
+  <si>
+    <t>02_RACE_WHITE</t>
+  </si>
+  <si>
+    <t>03_WEEK_EARNINGS</t>
+  </si>
+  <si>
+    <t>04_PERCENT_NVQ4</t>
+  </si>
+  <si>
+    <t>Faltan datos de CoL</t>
+  </si>
+  <si>
+    <t>05_CAR_TRAFFIC</t>
+  </si>
+  <si>
+    <t>06_EXP_LIFE</t>
+  </si>
+  <si>
+    <t>Sin datos de CoL, ni para estimar</t>
+  </si>
+  <si>
+    <t>07_CRIMES</t>
+  </si>
+  <si>
+    <t>08_SERVICES</t>
+  </si>
+  <si>
+    <t>09_HOUSE_PRICE</t>
+  </si>
+  <si>
+    <t>10_HOUSE_RENT</t>
   </si>
 </sst>
 </file>
@@ -503,37 +738,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.44140625" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.44140625" customWidth="1"/>
+    <col min="15" max="15" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -541,39 +779,36 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1999</v>
       </c>
       <c r="D2">
         <v>1999</v>
@@ -582,86 +817,76 @@
         <v>2020</v>
       </c>
       <c r="F2">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="G2">
         <v>2031</v>
       </c>
-      <c r="H2">
-        <v>1999</v>
-      </c>
-      <c r="I2">
-        <v>2031</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>1054</v>
+      </c>
+      <c r="K2">
+        <f>(((G2-F2)+1)*34) + 2</f>
+        <v>1056</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>2001</v>
-      </c>
-      <c r="D3">
-        <v>2011</v>
       </c>
       <c r="E3">
         <v>2050</v>
       </c>
-      <c r="H3">
-        <v>2011</v>
-      </c>
-      <c r="I3">
+      <c r="F3">
+        <v>2001</v>
+      </c>
+      <c r="G3">
         <v>2031</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>1054</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="0">(((G3-F3)+1)*34) + 2</f>
+        <v>1056</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>2002</v>
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2002</v>
@@ -670,42 +895,40 @@
         <v>2022</v>
       </c>
       <c r="F4">
-        <v>2023</v>
+        <v>2002</v>
       </c>
       <c r="G4">
         <v>2031</v>
       </c>
-      <c r="H4">
-        <v>2002</v>
-      </c>
-      <c r="I4">
-        <v>2031</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>1020</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1022</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>2004</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
       <c r="D5">
         <v>2004</v>
@@ -714,42 +937,40 @@
         <v>2021</v>
       </c>
       <c r="F5">
-        <v>2022</v>
+        <v>2004</v>
       </c>
       <c r="G5">
         <v>2031</v>
       </c>
-      <c r="H5">
-        <v>2004</v>
-      </c>
-      <c r="I5">
-        <v>2031</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>952</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>954</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="M5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1993</v>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1993</v>
@@ -758,39 +979,37 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>2024</v>
+        <v>2001</v>
       </c>
       <c r="G6">
         <v>2031</v>
       </c>
-      <c r="H6">
-        <v>1993</v>
-      </c>
-      <c r="I6">
-        <v>2031</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>1054</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1056</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7">
         <v>2003</v>
@@ -799,40 +1018,40 @@
         <v>2022</v>
       </c>
       <c r="F7">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="G7">
         <v>2031</v>
       </c>
-      <c r="H7">
-        <v>1993</v>
-      </c>
-      <c r="I7">
-        <v>2031</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>1999</v>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>959</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>988</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
       <c r="D8">
         <v>2010</v>
@@ -841,45 +1060,37 @@
         <v>2022</v>
       </c>
       <c r="F8">
-        <v>2023</v>
+        <v>2001</v>
       </c>
       <c r="G8">
         <v>2031</v>
       </c>
-      <c r="H8">
-        <v>2010</v>
-      </c>
-      <c r="I8">
-        <v>2031</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>1023</v>
+      </c>
+      <c r="K8">
+        <f>(((G8-F8)+1)*34) + 2</f>
+        <v>1056</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>2003</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2009</v>
@@ -888,42 +1099,37 @@
         <v>2024</v>
       </c>
       <c r="F9">
-        <v>2025</v>
+        <v>2003</v>
       </c>
       <c r="G9">
         <v>2031</v>
       </c>
-      <c r="H9">
-        <v>2009</v>
-      </c>
-      <c r="I9">
-        <v>2031</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>986</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>988</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>1995</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1995</v>
@@ -932,39 +1138,37 @@
         <v>2024</v>
       </c>
       <c r="F10">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="G10">
         <v>2031</v>
       </c>
-      <c r="H10">
-        <v>1995</v>
-      </c>
-      <c r="I10">
-        <v>2031</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>1054</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1056</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1997</v>
@@ -973,35 +1177,314 @@
         <v>2023</v>
       </c>
       <c r="F11">
-        <v>2024</v>
+        <v>2001</v>
       </c>
       <c r="G11">
         <v>2031</v>
       </c>
-      <c r="H11">
-        <v>1997</v>
-      </c>
-      <c r="I11">
-        <v>2031</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11">
-        <v>2023</v>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1056</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C143DD9-00C5-40C7-9E8B-5539DA3CA130}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEEC7C9-BF1E-4F4D-B9C9-AA50B3B00AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5AFF4-5691-4107-BCBE-6961D7834732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="153">
   <si>
     <t>Indicador</t>
   </si>
@@ -389,6 +389,114 @@
   </si>
   <si>
     <t>10_HOUSE_RENT</t>
+  </si>
+  <si>
+    <t>Extensión</t>
+  </si>
+  <si>
+    <t>Creación</t>
+  </si>
+  <si>
+    <t>Datos relevantes</t>
+  </si>
+  <si>
+    <t>Engloba las ciudades de Barking, Chadwell Heath y Dagenham. Uno de los 6 barrios que alojaron los Juegosa Olímpicos de 2012</t>
+  </si>
+  <si>
+    <t>Ubicada dentro del Thames Gateway, un área diseñada como prioridad nacional para la regeneración ur</t>
+  </si>
+  <si>
+    <t>Outer London</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>East London</t>
+  </si>
+  <si>
+    <t>Greater London</t>
+  </si>
+  <si>
+    <t>Mezcla residencial, industrial y comercial. Aloja el estadio de Wembley</t>
+  </si>
+  <si>
+    <t>Inner London</t>
+  </si>
+  <si>
+    <t>Centro cultural y comercial, Camden Town</t>
+  </si>
+  <si>
+    <t>Distrito de negocios, financiero y clutural, Adele, Amy Winehouse y Leona Lewis</t>
+  </si>
+  <si>
+    <t>La mayor parte es superficie agrícola</t>
+  </si>
+  <si>
+    <t>West London</t>
+  </si>
+  <si>
+    <t>330 Hectareas diseñadas como parte del Metropolitan Green Belt, dos grandes jardines</t>
+  </si>
+  <si>
+    <t>Barrio más al norte</t>
+  </si>
+  <si>
+    <t>Ubicación del meridiano de Greenwich</t>
+  </si>
+  <si>
+    <t>Ubicación de muchos de los recintos del Queen Elizabeth Olympic Park para las olimpiadas de 2012</t>
+  </si>
+  <si>
+    <t>Localización de las oficinas de muchas empresas internacionales. Único barrio que posee tres clubes profesionales, Chelsea, Fulham y Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Contrastes geográficos, wooded high ground, land falls sharply away to the flat, low-lying land beside the River Lea in the east. Tottenham</t>
+  </si>
+  <si>
+    <t>Ubicado en la zona norte de la ciudad</t>
+  </si>
+  <si>
+    <t>Centro de entretenimiento nocturno, dispone de extensas áreas de espacios abiertos protegidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El más al oeste. Heathrow y la universidad de Brunel. Zona rural en el norte </t>
+  </si>
+  <si>
+    <t>London Museum of Water &amp; Steam and the attractions of Osterley Park, Gunnerbury Park, Syon House and Chiswick House</t>
+  </si>
+  <si>
+    <t>Localización del Emirates Stadium del Arsenal</t>
+  </si>
+  <si>
+    <t>Contiene áreas de gran afluencia como Notting Hill, Kensington, South Kensington, Chelsea y Knightsbridge. Contiene los mayores museos y universidades, las tiendas como Harrods y Harvey Nichols o los Kensington Gardens. Se celebra el carnaval de Notthing Hill y está la residencia real británica Kensington Palace</t>
+  </si>
+  <si>
+    <t>London Eye, Teatro Nacional</t>
+  </si>
+  <si>
+    <t>Cruzado por el meridiano 0, se ubica la University of London</t>
+  </si>
+  <si>
+    <t>Torneo Wimbledon</t>
+  </si>
+  <si>
+    <t>London city airport, Alojó los juegos conteniendo gran parte del Olympic Park y el London Stadium</t>
+  </si>
+  <si>
+    <t>Dispone de más de 35 parques, canchas y espacios abiertos, Roding Valley Park un santuario de vida salvaje</t>
+  </si>
+  <si>
+    <t>Richmond Park, parque más grande de Londres, el National Archives, attractions of Kew Gardens, Hampton Court Palace</t>
+  </si>
+  <si>
+    <t>Attractions of The Shard, Tate Modern, Borough Market, Shakespeare's Globe, Imperial War Museum</t>
+  </si>
+  <si>
+    <t>Algunas de las escuelas con mejores notas en el país, elegida en 2010 como una de las Vanguard areas por la Big Society initiative</t>
+  </si>
+  <si>
+    <t>Aloja algunos de los edificios más altos en Londres en la zona denominada Canary Wharf, una parte del Queen Elizabeth Olympic Park, es uno de los mayores distritos financieros del país</t>
   </si>
 </sst>
 </file>
@@ -740,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,255 +1312,600 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C143DD9-00C5-40C7-9E8B-5539DA3CA130}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="D2">
+        <v>1965</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>86.74</v>
+      </c>
+      <c r="D3">
+        <v>1965</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>60.56</v>
+      </c>
+      <c r="D4">
+        <v>1965</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>43.24</v>
+      </c>
+      <c r="D5">
+        <v>1965</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>150.15</v>
+      </c>
+      <c r="D6">
+        <v>1965</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>21.8</v>
+      </c>
+      <c r="D7">
+        <v>1965</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>1965</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>55.53</v>
+      </c>
+      <c r="D9">
+        <v>1965</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>82.2</v>
+      </c>
+      <c r="D10">
+        <v>1965</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>47.35</v>
+      </c>
+      <c r="D11">
+        <v>1965</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1965</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D13">
+        <v>1965</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>29.59</v>
+      </c>
+      <c r="D14">
+        <v>1965</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>50.47</v>
+      </c>
+      <c r="D15">
+        <v>1965</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>112.27</v>
+      </c>
+      <c r="D16">
+        <v>1965</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>115.7</v>
+      </c>
+      <c r="D17">
+        <v>1965</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>55.98</v>
+      </c>
+      <c r="D18">
+        <v>1965</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>14.86</v>
+      </c>
+      <c r="D19">
+        <v>1965</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>12.13</v>
+      </c>
+      <c r="D20">
+        <v>1965</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>37.25</v>
+      </c>
+      <c r="D21">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>77</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>26.82</v>
+      </c>
+      <c r="D22">
+        <v>1965</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>35.15</v>
+      </c>
+      <c r="D23">
+        <v>1965</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>37.61</v>
+      </c>
+      <c r="D24">
+        <v>1965</v>
+      </c>
+      <c r="F24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>36.22</v>
+      </c>
+      <c r="D25">
+        <v>1965</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>56.41</v>
+      </c>
+      <c r="D26">
+        <v>1965</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>87</v>
       </c>
       <c r="B27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>57.41</v>
+      </c>
+      <c r="D27">
+        <v>1965</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>28.85</v>
+      </c>
+      <c r="D28">
+        <v>1965</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>43.85</v>
+      </c>
+      <c r="D29">
+        <v>1965</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
       <c r="B30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>19.77</v>
+      </c>
+      <c r="D30">
+        <v>1965</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -1460,7 +1913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>

--- a/Estado_Indicadores.xlsx
+++ b/Estado_Indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Formación\UOC\Asignaturas\12 - TFM\M3\UOC_TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5AFF4-5691-4107-BCBE-6961D7834732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842E850-90AC-4D2A-9C55-F2F79C1FE96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>Indicador</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>Aloja algunos de los edificios más altos en Londres en la zona denominada Canary Wharf, una parte del Queen Elizabeth Olympic Park, es uno de los mayores distritos financieros del país</t>
+  </si>
+  <si>
+    <t>Sede de las olimpiadas con Lee Valley Hockey and Tennis Centre and part of the Queen Elizabeth Olympic Park</t>
+  </si>
+  <si>
+    <t>Sede del nuevo mercado de Covent Garden y el Helipuerto de Londres</t>
+  </si>
+  <si>
+    <t>Lugares emblemáticos como el Parlamento, El British government, zona de compras Oxford Street, Regent Street, Picacadilly, Bond Street, Soho, Buckingham Palace, Westminster Abbey, WhiteHall, Trafalgar Square, Hyde Park, gran parte de Regent's Park</t>
   </si>
 </sst>
 </file>
@@ -848,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1314,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C143DD9-00C5-40C7-9E8B-5539DA3CA130}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,6 +1921,18 @@
       <c r="B31" t="s">
         <v>96</v>
       </c>
+      <c r="C31">
+        <v>38.82</v>
+      </c>
+      <c r="D31">
+        <v>1965</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1920,16 +1941,34 @@
       <c r="B32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>34.26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>21.48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>101</v>
       </c>
